--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="283">
   <si>
     <t>Property</t>
   </si>
@@ -587,13 +587,13 @@
     <t>Type of function performed</t>
   </si>
   <si>
-    <t>Indicates the type of function performed at the location.</t>
+    <t>no-basis: The Location.type can also indicate a virtual meeting by using codes for virtual location like video or telephone</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+    <t>http://hl7.no/fhir/ValueSet/no-basis-location-type</t>
   </si>
   <si>
     <t>.code</t>
@@ -1223,7 +1223,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3089,9 +3089,7 @@
       <c r="W18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
         <v>186</v>
       </c>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -252,6 +252,10 @@
 no-basis: The use-case for no-basis-Location is representation of organization structure to describe where a specific department or healthcare service is offered.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>.Role[classCode=SDLC]</t>
   </si>
   <si>
@@ -635,7 +639,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>If locations can be visited, we need to keep track of their address.</t>
@@ -1024,10 +1028,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1458,10 +1462,10 @@
         <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>72</v>
@@ -1469,10 +1473,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1483,7 +1487,7 @@
         <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1492,19 +1496,19 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1554,13 +1558,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1577,10 +1581,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1591,7 +1595,7 @@
         <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1600,16 +1604,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1660,19 +1664,19 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>72</v>
@@ -1683,10 +1687,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1697,28 +1701,28 @@
         <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1768,19 +1772,19 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -1791,10 +1795,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1805,7 +1809,7 @@
         <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1817,16 +1821,16 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1852,13 +1856,13 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1876,19 +1880,19 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -1899,21 +1903,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1925,16 +1929,16 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1984,22 +1988,22 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
@@ -2007,14 +2011,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2033,16 +2037,16 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2092,7 +2096,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
@@ -2107,7 +2111,7 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -2115,14 +2119,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2141,16 +2145,16 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2200,7 +2204,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2212,10 +2216,10 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
@@ -2223,14 +2227,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2243,25 +2247,25 @@
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>72</v>
@@ -2310,7 +2314,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -2322,10 +2326,10 @@
         <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
@@ -2333,10 +2337,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2356,20 +2360,20 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>72</v>
@@ -2418,7 +2422,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2430,21 +2434,21 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2455,25 +2459,25 @@
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2500,13 +2504,13 @@
         <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>72</v>
@@ -2524,33 +2528,33 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2561,7 +2565,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2570,16 +2574,16 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2606,13 +2610,13 @@
         <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>72</v>
@@ -2630,33 +2634,33 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2667,7 +2671,7 @@
         <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2676,19 +2680,19 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2738,22 +2742,22 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -2761,10 +2765,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2787,19 +2791,19 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>72</v>
@@ -2848,7 +2852,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -2860,10 +2864,10 @@
         <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -2871,10 +2875,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2885,7 +2889,7 @@
         <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2894,20 +2898,20 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>72</v>
@@ -2956,22 +2960,22 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -2979,10 +2983,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2993,7 +2997,7 @@
         <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -3002,22 +3006,22 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>72</v>
@@ -3042,13 +3046,13 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
@@ -3066,33 +3070,33 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3112,16 +3116,16 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3148,11 +3152,11 @@
         <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>72</v>
@@ -3170,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -3182,21 +3186,21 @@
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3219,13 +3223,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3276,7 +3280,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3288,10 +3292,10 @@
         <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3299,10 +3303,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3313,7 +3317,7 @@
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3325,19 +3329,19 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3386,22 +3390,22 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -3409,10 +3413,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3423,7 +3427,7 @@
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3432,20 +3436,20 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
@@ -3470,13 +3474,13 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -3494,33 +3498,33 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3531,7 +3535,7 @@
         <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -3543,17 +3547,17 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>72</v>
@@ -3602,22 +3606,22 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -3625,10 +3629,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3639,7 +3643,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3651,13 +3655,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3708,13 +3712,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3723,7 +3727,7 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -3731,14 +3735,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3757,16 +3761,16 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3816,7 +3820,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -3828,10 +3832,10 @@
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -3839,14 +3843,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3859,25 +3863,25 @@
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>72</v>
@@ -3926,7 +3930,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3938,10 +3942,10 @@
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -3949,10 +3953,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3960,10 +3964,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3975,13 +3979,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4032,22 +4036,22 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -4055,10 +4059,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4066,10 +4070,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -4081,13 +4085,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4138,22 +4142,22 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -4161,10 +4165,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4175,7 +4179,7 @@
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -4187,13 +4191,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4244,22 +4248,22 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
@@ -4267,10 +4271,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4281,7 +4285,7 @@
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -4290,22 +4294,22 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -4354,22 +4358,22 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4377,10 +4381,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4391,7 +4395,7 @@
         <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
@@ -4403,17 +4407,17 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
@@ -4462,22 +4466,22 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -4485,10 +4489,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4511,16 +4515,16 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4570,7 +4574,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -4582,10 +4586,10 @@
         <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -4593,10 +4597,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4607,7 +4611,7 @@
         <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4619,13 +4623,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4676,13 +4680,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4691,7 +4695,7 @@
         <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -4699,14 +4703,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4725,16 +4729,16 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4784,7 +4788,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4796,10 +4800,10 @@
         <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -4807,14 +4811,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4827,25 +4831,25 @@
         <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>72</v>
@@ -4894,7 +4898,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -4906,10 +4910,10 @@
         <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -4917,10 +4921,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4943,13 +4947,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4976,13 +4980,13 @@
         <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>72</v>
@@ -5000,7 +5004,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5012,10 +5016,10 @@
         <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5023,10 +5027,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5037,7 +5041,7 @@
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -5049,13 +5053,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5106,22 +5110,22 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -5129,10 +5133,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5143,7 +5147,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -5155,13 +5159,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5212,22 +5216,22 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5235,10 +5239,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5249,7 +5253,7 @@
         <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -5261,13 +5265,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5318,22 +5322,22 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -5341,10 +5345,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5355,7 +5359,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5367,13 +5371,13 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5424,22 +5428,22 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -5447,10 +5451,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5473,17 +5477,17 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -5532,7 +5536,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5544,10 +5548,10 @@
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -598,13 +598,13 @@
     <t>Type of function performed</t>
   </si>
   <si>
-    <t>no-basis: The Location.type can also indicate a virtual meeting by using codes for virtual location like video or telephone</t>
+    <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/no-basis-location-type</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
   </si>
   <si>
     <t>.code</t>
@@ -1235,7 +1235,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.44140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3154,7 +3154,9 @@
       <c r="X18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y18" s="2"/>
+      <c r="Y18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="Z18" t="s" s="2">
         <v>189</v>
       </c>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="285">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -633,23 +633,19 @@
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Physical location</t>
+  </si>
+  <si>
+    <t>Physical location.</t>
+  </si>
+  <si>
+    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.</t>
   </si>
   <si>
     <t>If locations can be visited, we need to keep track of their address.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>AD</t>
+    <t>.addr</t>
   </si>
   <si>
     <t>Location.physicalType</t>
@@ -3401,13 +3397,13 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -3415,10 +3411,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3444,14 +3440,14 @@
         <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
@@ -3476,14 +3472,14 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
       </c>
@@ -3500,7 +3496,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -3515,7 +3511,7 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>183</v>
@@ -3523,10 +3519,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3549,17 +3545,17 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>72</v>
@@ -3608,7 +3604,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3623,7 +3619,7 @@
         <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -3631,10 +3627,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3660,10 +3656,10 @@
         <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3714,7 +3710,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -3737,10 +3733,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3769,7 +3765,7 @@
         <v>128</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>130</v>
@@ -3822,7 +3818,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -3845,14 +3841,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3874,10 +3870,10 @@
         <v>127</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>130</v>
@@ -3932,7 +3928,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3955,10 +3951,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3981,13 +3977,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4038,7 +4034,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4053,7 +4049,7 @@
         <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -4061,10 +4057,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4087,13 +4083,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4144,7 +4140,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4159,7 +4155,7 @@
         <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -4167,10 +4163,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4193,13 +4189,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4250,7 +4246,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4265,7 +4261,7 @@
         <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
@@ -4273,10 +4269,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4299,19 +4295,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -4360,7 +4356,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4375,7 +4371,7 @@
         <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4383,10 +4379,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4409,17 +4405,17 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
@@ -4468,7 +4464,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4483,7 +4479,7 @@
         <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -4491,10 +4487,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4517,16 +4513,16 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4576,7 +4572,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -4591,7 +4587,7 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -4599,10 +4595,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4628,10 +4624,10 @@
         <v>161</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4682,7 +4678,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4705,10 +4701,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4737,7 +4733,7 @@
         <v>128</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>130</v>
@@ -4790,7 +4786,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4813,14 +4809,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4842,10 +4838,10 @@
         <v>127</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>130</v>
@@ -4900,7 +4896,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -4923,10 +4919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4952,10 +4948,10 @@
         <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4985,11 +4981,11 @@
         <v>148</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>72</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5021,7 +5017,7 @@
         <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5029,10 +5025,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5055,13 +5051,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5112,7 +5108,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5127,7 +5123,7 @@
         <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -5135,10 +5131,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5161,13 +5157,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5218,7 +5214,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5233,7 +5229,7 @@
         <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5241,10 +5237,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5267,13 +5263,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5324,7 +5320,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5339,7 +5335,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -5347,10 +5343,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5376,10 +5372,10 @@
         <v>161</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5430,7 +5426,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5453,10 +5449,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5479,17 +5475,17 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -5538,7 +5534,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
@@ -345,7 +345,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -666,7 +666,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC].code</t>
@@ -788,7 +788,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1206,17 +1206,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.95703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1225,24 +1225,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.59765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Location.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Location</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Location</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -629,7 +629,7 @@
     <t>Location.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address {http://hl7.no/fhir/ig/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
@@ -766,7 +766,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -891,7 +891,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint|http://hl7.no/fhir/StructureDefinition/no-basis-Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Endpoint)
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
